--- a/data/trans_camb/P15B_tráfico-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P15B_tráfico-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-10.00737900511345</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-19.90079063739347</v>
+        <v>-19.90079063739348</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-6.58016888352724</v>
@@ -655,7 +655,7 @@
         <v>1.737661247536804</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.02124815326801921</v>
+        <v>0.02124815326801643</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-8.722220419585353</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-30.75518457881411</v>
+        <v>-32.48650392948586</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-35.04044476005009</v>
+        <v>-33.59111269405918</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-43.05179898491917</v>
+        <v>-42.31745239405758</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-30.70920465006967</v>
+        <v>-31.42651141291449</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-21.77914114800441</v>
+        <v>-23.25580497320261</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-24.02156550474445</v>
+        <v>-24.2341964727837</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-27.26993096612069</v>
+        <v>-25.91579595312503</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-21.72474113613977</v>
+        <v>-21.4759731226884</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-27.56806453209788</v>
+        <v>-26.58478079936905</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.2094351477881</v>
+        <v>10.05343863766374</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.459432524717297</v>
+        <v>11.29784467973315</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.873153736381576</v>
+        <v>-2.283927623105924</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.407939506656298</v>
+        <v>9.65261305996575</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>19.90515681647873</v>
+        <v>19.20341590513314</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>17.42415907941823</v>
+        <v>18.42654740267131</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.611153726893801</v>
+        <v>6.645328284230372</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.512530073276691</v>
+        <v>10.32226353330442</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.74677753029985</v>
+        <v>2.202611327977185</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.3395194571500444</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.6751723533816456</v>
+        <v>-0.6751723533816457</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.3760513039715888</v>
@@ -760,7 +760,7 @@
         <v>0.09930592809448333</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001214314690832619</v>
+        <v>0.00121431469083246</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.3551685018972204</v>
@@ -769,7 +769,7 @@
         <v>-0.2124752773541679</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.4530095150678795</v>
+        <v>-0.4530095150678794</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6944458029059027</v>
+        <v>-0.6941045009089293</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.766104147704046</v>
+        <v>-0.7663910427803724</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9071911482944178</v>
+        <v>-0.8983326804255044</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.8761412384145135</v>
+        <v>-0.9186518247382988</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.636680318628606</v>
+        <v>-0.6788622634071173</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7191796342568211</v>
+        <v>-0.7080223611568995</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7121229699020576</v>
+        <v>-0.7160673298723409</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5978826726330235</v>
+        <v>-0.5932590354664574</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7523596001440824</v>
+        <v>-0.7327694743855808</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,27 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7162060439436271</v>
+        <v>0.6850940663239761</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7180273460266825</v>
+        <v>0.7722714293914448</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.02060026388967025</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>1.939808570238432</v>
-      </c>
+        <v>0.02981719651462006</v>
+      </c>
+      <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="n">
-        <v>4.133156344730263</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>3.528278209259499</v>
-      </c>
+        <v>4.088309203697965</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>0.272558411921442</v>
+        <v>0.6363531809645407</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.585851180497331</v>
+        <v>0.8583074797559497</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1642582091652615</v>
+        <v>0.1734236507645574</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +885,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-32.56376752086077</v>
+        <v>-32.22568030968372</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-34.42909120178902</v>
+        <v>-35.9359969611623</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-26.33583711669476</v>
+        <v>-28.35885310553006</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-25.70589983955158</v>
+        <v>-24.40060623017304</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-25.94445055729085</v>
+        <v>-25.19685229737038</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-15.30477410464085</v>
+        <v>-16.78734756861278</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-21.67270603242189</v>
+        <v>-24.07135509962032</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-25.91182578080144</v>
+        <v>-26.32389067383221</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-18.78405830115129</v>
+        <v>-17.29722324144713</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.818930419135373</v>
+        <v>5.265710128134159</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.613514678869375</v>
+        <v>3.337553311121789</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.63625535758211</v>
+        <v>12.22607044744162</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.25833050601456</v>
+        <v>10.68762003341662</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.06402264694371</v>
+        <v>13.79015063304437</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>26.80881915156618</v>
+        <v>24.14905546571849</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.298721468044656</v>
+        <v>2.820914695724964</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.227959687069089</v>
+        <v>1.726633697792937</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>11.33112429744898</v>
+        <v>12.10637837326516</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +990,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6533845580347156</v>
+        <v>-0.6617483410370515</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7219585395988193</v>
+        <v>-0.7340890981656736</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5781177673861989</v>
+        <v>-0.6246722769601368</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.678244556062102</v>
+        <v>-0.6658660081077602</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7401772828440337</v>
+        <v>-0.7191252099563232</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4881086292335814</v>
+        <v>-0.5492622498354599</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5661616106641103</v>
+        <v>-0.5915843155286528</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6593232469132035</v>
+        <v>-0.6472001790473602</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4761144881927923</v>
+        <v>-0.4609249090272182</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1025,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3462957123497958</v>
+        <v>0.2231535787539565</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2035069929961737</v>
+        <v>0.2752252566745084</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6976565787086471</v>
+        <v>0.4994356459423189</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.130069000226531</v>
+        <v>1.076085723037754</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.682211958815599</v>
+        <v>1.776527772556378</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.54095006644823</v>
+        <v>2.580598614494514</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.155607955746985</v>
+        <v>0.1381244865920581</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1138213637534207</v>
+        <v>0.1241641960880557</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5771068751260777</v>
+        <v>0.5679049056896563</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1070,7 @@
         <v>-14.80259720331327</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-9.477652582044138</v>
+        <v>-9.477652582044133</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.323228495040287</v>
@@ -1083,7 +1079,7 @@
         <v>-5.101015891476951</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-9.895946911156315</v>
+        <v>-9.895946911156313</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.6859762695665184</v>
@@ -1092,7 +1088,7 @@
         <v>-9.779288504036668</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-11.00553176602013</v>
+        <v>-11.00553176602014</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1099,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-27.39095927316144</v>
+        <v>-31.48267657078885</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-41.27405705835598</v>
+        <v>-36.89363778913102</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-35.1871786306674</v>
+        <v>-36.44822994626499</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-19.14402343378096</v>
+        <v>-19.94972494911528</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-28.03565655471324</v>
+        <v>-28.27233537594082</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-32.01697136115946</v>
+        <v>-30.34231200600762</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-16.75766455455816</v>
+        <v>-16.53835395546824</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-26.15838139504466</v>
+        <v>-26.64253249780587</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-28.45835878450525</v>
+        <v>-27.3590234130232</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1134,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.95868651942315</v>
+        <v>17.06282510210796</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.117456841543338</v>
+        <v>10.81669126760736</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.98876243104061</v>
+        <v>14.67610373996258</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22.3053805867002</v>
+        <v>22.63670907524348</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.67027659273316</v>
+        <v>14.83386198753681</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.10284081666298</v>
+        <v>8.336427666222814</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>14.87332707920284</v>
+        <v>14.25512818324177</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.392032856350191</v>
+        <v>6.474001781572385</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.109772604169009</v>
+        <v>4.907507306514431</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1175,7 @@
         <v>-0.4261187468890541</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2728308678700312</v>
+        <v>-0.272830867870031</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1541403543263513</v>
@@ -1188,7 +1184,7 @@
         <v>-0.2365989573422559</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.4590008678479103</v>
+        <v>-0.4590008678479102</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.02440628996610295</v>
@@ -1197,7 +1193,7 @@
         <v>-0.347936454190347</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.3915648564379355</v>
+        <v>-0.3915648564379357</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1204,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5603171448821507</v>
+        <v>-0.5774890043654279</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8039610622167075</v>
+        <v>-0.7747468510330188</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7233352564309462</v>
+        <v>-0.7644803095602631</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5278449644303296</v>
+        <v>-0.5744179209091145</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.795180363346692</v>
+        <v>-0.8097481164399954</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8801815839036239</v>
+        <v>-0.8474950507270247</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4320901577019278</v>
+        <v>-0.4432093801069893</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6684261766183482</v>
+        <v>-0.705226115942055</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.7296020585847229</v>
+        <v>-0.7218381548044299</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1239,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.156271168447482</v>
+        <v>0.9539734953220177</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4472480306782771</v>
+        <v>0.6600563769789809</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7768920956227501</v>
+        <v>0.7995180263745296</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.540699654458552</v>
+        <v>2.940195575555093</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.93399826104044</v>
+        <v>2.007863903058033</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.354424244907096</v>
+        <v>1.873541704578474</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9213663137080825</v>
+        <v>0.8012708285692405</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4704666527080973</v>
+        <v>0.3217269198306297</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.373148137768262</v>
+        <v>0.3371606704860783</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1293,7 @@
         <v>-6.17177664807339</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.42251412522174</v>
+        <v>6.422514125221729</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.09460714603909681</v>
@@ -1317,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-20.67832561457445</v>
+        <v>-19.66143596396239</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-22.41993426677384</v>
+        <v>-20.92907240487634</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.88595666130305</v>
+        <v>-9.859887070108698</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-21.24785298134807</v>
+        <v>-20.83551612797534</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-25.04675575225325</v>
+        <v>-26.25503355621321</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-13.58828850410393</v>
+        <v>-16.27707861022833</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-15.47293415991324</v>
+        <v>-12.75355520377171</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-19.50927331712055</v>
+        <v>-18.83760539960404</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-5.789093310674439</v>
+        <v>-7.096206556310571</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>17.63320709629579</v>
+        <v>16.68041696701318</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.82793073809424</v>
+        <v>17.0420821354295</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29.50221774324133</v>
+        <v>32.16651184699644</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18.82882913537464</v>
+        <v>16.46669215288786</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>12.31560857598211</v>
+        <v>11.35800229189076</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>21.8718558509104</v>
+        <v>22.95895629621744</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.30419819760387</v>
+        <v>12.96334045509771</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.897743794099549</v>
+        <v>7.227195528095244</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>20.89636206387256</v>
+        <v>21.69440748536446</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1389,7 @@
         <v>-0.07482356857559189</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4507647183055951</v>
+        <v>0.4507647183055953</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.006823545579558091</v>
@@ -1402,7 +1398,7 @@
         <v>-0.2919585992832859</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3038198455321937</v>
+        <v>0.3038198455321931</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.003823503735753875</v>
@@ -1422,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4906260131137669</v>
+        <v>-0.5025202833539696</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5636348045001907</v>
+        <v>-0.5378790487420352</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2867298314132334</v>
+        <v>-0.2503644523916354</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5794716082418444</v>
+        <v>-0.5935505390133714</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7636608963380651</v>
+        <v>-0.7532927374020209</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3902020243180781</v>
+        <v>-0.4228342992262979</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4340922671862315</v>
+        <v>-0.3752371905902659</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5371873274002452</v>
+        <v>-0.5568495435640376</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1755861907071632</v>
+        <v>-0.2060205221744487</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.234314672076318</v>
+        <v>1.124591766189926</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.071196605873542</v>
+        <v>1.171190467141305</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.91991966604606</v>
+        <v>2.09367799466323</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.728067610856772</v>
+        <v>2.198193784839755</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.725822988345142</v>
+        <v>1.636931437057539</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.649636802830993</v>
+        <v>2.638332767856971</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7834876873248354</v>
+        <v>0.8531528079012591</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5142583683716557</v>
+        <v>0.5018921523336316</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.304766518499141</v>
+        <v>1.395093729937031</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1527,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-17.45182639274213</v>
+        <v>-16.57519058975856</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-20.21542036991745</v>
+        <v>-22.67976810003693</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-16.19236564223077</v>
+        <v>-16.72958921083162</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-11.48498754257741</v>
+        <v>-13.26946777755815</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-13.97058947202486</v>
+        <v>-13.95296435221672</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-9.32810562830114</v>
+        <v>-10.13436098936786</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-12.11012873046989</v>
+        <v>-12.16757578989862</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-15.73163968864235</v>
+        <v>-16.23877061194862</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-11.33410794186779</v>
+        <v>-11.12076801366776</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1562,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.879421865935829</v>
+        <v>3.298493253542802</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4682122445203858</v>
+        <v>-0.5545965575505676</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.704374097099388</v>
+        <v>5.520674885303561</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.233641675544961</v>
+        <v>7.631776488898745</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.675304977069319</v>
+        <v>6.491878661178847</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>10.67334121970629</v>
+        <v>10.23450481253614</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.800114364724019</v>
+        <v>2.387801019238555</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.7974922941889631</v>
+        <v>-1.198063558770865</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.976495343531933</v>
+        <v>4.216907947287363</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1632,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4363302177440806</v>
+        <v>-0.4235889682718559</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.533415471832537</v>
+        <v>-0.5626442165048173</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4270608748422903</v>
+        <v>-0.4151256789570242</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4106160725828195</v>
+        <v>-0.4509102108206017</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5100579272102121</v>
+        <v>-0.50380851612146</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.341280589422008</v>
+        <v>-0.3547069253114478</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3622605585593964</v>
+        <v>-0.383744781897348</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4833265737480922</v>
+        <v>-0.4878735464108498</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3434517072251746</v>
+        <v>-0.3394245347908062</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1667,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.120255957126798</v>
+        <v>0.1376963601958148</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.01980175755634049</v>
+        <v>-0.01965162581757114</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2268901795822288</v>
+        <v>0.2006232638097904</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6279014939689762</v>
+        <v>0.5631998083615526</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.425598624158358</v>
+        <v>0.4722838812244088</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.750715731782754</v>
+        <v>0.7070561222157239</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09164503468188649</v>
+        <v>0.1039485332434799</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.02536221249744975</v>
+        <v>-0.04495152826138363</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1750387918930199</v>
+        <v>0.195213175684579</v>
       </c>
     </row>
     <row r="34">
